--- a/combined/Kantor_Pemerintahan.xlsx
+++ b/combined/Kantor_Pemerintahan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.886243</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.886243</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.327931</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Kabupaten+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f69d1983:0x227af3c2bbc028b6!8m2!3d-7.8862429!4d110.3279307!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzsqjg0s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>-7.887293</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.887293</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.32741</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bupati+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f150ce49:0xb7fe605811d3c6e7!8m2!3d-7.887293!4d110.32741!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzwfd4_6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -575,25 +568,24 @@
           <t>(0274) 367404</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>-7.883441</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.883441</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.332073</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kecamatan+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff71e22061:0xe068810d5d57a321!8m2!3d-7.8834409!4d110.3320728!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6mp0syy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kecamatan+Bantul/@-7.8862429,110.3099063,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff71e22061:0xe068810d5d57a321!8m2!3d-7.8834409!4d110.3320728!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6mp0syy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -620,25 +612,24 @@
           <t>(0274) 367333</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.897343</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.897343</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.340582</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Dinas+Bupati+Bantul/@-7.8973435,110.3225574,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55524c88b353:0xa01177a8be78a9db!8m2!3d-7.8973435!4d110.3405818!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11ng53lby4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -657,25 +648,24 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>-7.882518</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.882518</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.331496</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff9db4b345:0x5659262b5bc1b7a7!8m2!3d-7.8825185!4d110.3314957!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11dz_zjg2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -690,25 +680,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.886403</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.886403</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.327579</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Administrasi+Pemerintahan+Setda+Kabupaten+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff2699f77ac9:0x207936493c2104b0!8m2!3d-7.8864034!4d110.3275791!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11g303l9w4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -731,25 +720,24 @@
           <t>(0274) 367533</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.886947</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.886947</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.32792</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BAPPEDA+Kabupaten+Bantul(%EA%A6%A7%EA%A6%A5%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%A3%EA%A6%8F%EA%A6%A7%EA%A6%B8%EA%A6%A5%EA%A6%A0%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80)/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a58391cf748f1:0x50339dd2b6cb13ab!8m2!3d-7.8869473!4d110.3279202!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzv283rg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -768,25 +756,24 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>-7.886945</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.886945</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.327446</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pengelolaan+Keuangan,+Pendapatan+dan+Aset+Daerah+Kabupaten+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56621bd50d:0x566e12e08a8bce03!8m2!3d-7.8869452!4d110.3274459!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c75pxtvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pengelolaan+Keuangan,+Pendapatan+dan+Aset+Daerah+Kabupaten+Bantul/@-7.8825185,110.3134713,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56621bd50d:0x566e12e08a8bce03!8m2!3d-7.8869452!4d110.3274459!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c75pxtvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -813,25 +800,24 @@
           <t>(0274) 367446</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>-7.90509</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.90509</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.3495</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanahan+dan+Tata+Ruang+Kabupaten+Bantul/@-7.90509,110.3314757,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff529cb62a31:0x289a5fe73dbadcc4!8m2!3d-7.90509!4d110.3495001!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c6r32z2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanahan+dan+Tata+Ruang+Kabupaten+Bantul/@-7.90509,110.3314757,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff529cb62a31:0x289a5fe73dbadcc4!8m2!3d-7.90509!4d110.3495001!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11c6r32z2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -854,25 +840,24 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.886618</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.886618</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.327493</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bantulpedia/@-7.8866175,110.3094684,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7affe2a6b6acbb:0xcbc1d570ba1cbcd4!8m2!3d-7.8866175!4d110.3274928!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11rx287fg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bantulpedia/@-7.8866175,110.3094684,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7affe2a6b6acbb:0xcbc1d570ba1cbcd4!8m2!3d-7.8866175!4d110.3274928!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11rx287fg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -899,25 +884,24 @@
           <t>(0274) 367171</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>-7.904959</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.904959</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.349049</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kepemudaan+dan+Olahraga+Kabupaten+Bantul/@-7.9049586,110.3310249,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f3d7b0e74d:0x9414dc90605ec2cb!8m2!3d-7.9049586!4d110.3490493!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1ptxgrtpw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -940,25 +924,24 @@
           <t>(0274) 367867</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.904797</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.904797</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.347915</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+Kabupaten+Bantul/@-7.9049586,110.3310249,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5593fb3b2581:0x967bab785b50fe09!8m2!3d-7.9047974!4d110.3479151!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bw7pplxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+Kabupaten+Bantul/@-7.9049586,110.3310249,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5593fb3b2581:0x967bab785b50fe09!8m2!3d-7.9047974!4d110.3479151!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bw7pplxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -986,22 +969,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.886195</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.886195</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.327894</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Badan+kepegawaian+dan+Pengembangan+Sumber+Daya+Manusia+Kabupaten+Bantul/@-7.8861947,110.3098694,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff0036c0342f:0x33038655a04641a1!8m2!3d-7.8861947!4d110.3278938!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11vt5r_616?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,25 +1006,24 @@
           <t>(0274) 367509</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.886625</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.886625</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.327847</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Bantul/@-7.8861947,110.3098694,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff5604a1fd19:0xf17101146a758192!8m2!3d-7.8866254!4d110.3278469!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bc7rqynl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Bantul/@-7.8861947,110.3098694,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff5604a1fd19:0xf17101146a758192!8m2!3d-7.8866254!4d110.3278469!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bc7rqynl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1061,25 +1042,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.896053</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.896053</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.338432</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pora+Kab.+Bantul/@-7.8960535,110.3204078,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f3c2f374eb:0x94f5828f38ca4a9f!8m2!3d-7.8960535!4d110.3384322!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11dzdp1pk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pora+Kab.+Bantul/@-7.8960535,110.3204078,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f3c2f374eb:0x94f5828f38ca4a9f!8m2!3d-7.8960535!4d110.3384322!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11dzdp1pk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1106,25 +1086,24 @@
           <t>(0274) 368276</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>-7.882297</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.882297</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.331733</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Desa+Bantul/@-7.882297,110.3137086,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff9b16f10b:0x79280ef861726647!8m2!3d-7.882297!4d110.331733!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6hwzrmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Desa+Bantul/@-7.882297,110.3137086,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ff9b16f10b:0x79280ef861726647!8m2!3d-7.882297!4d110.331733!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARdsb2NhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11b6hwzrmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1151,25 +1130,24 @@
           <t>(0274) 6460236</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.904212</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.904212</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.348415</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Ketahanan+Pangan+dan+Pertanian+Kabupaten+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57440fbb26f3:0xcdd5cce8561fde33!8m2!3d-7.9042123!4d110.3484152!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzrq4cqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Ketahanan+Pangan+dan+Pertanian+Kabupaten+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57440fbb26f3:0xcdd5cce8561fde33!8m2!3d-7.9042123!4d110.3484152!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzrq4cqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1188,25 +1166,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.902432</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.902432</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.348272</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pemkab+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55937894c04f:0xa02ec066d55beefa!8m2!3d-7.9024317!4d110.3482722!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11g8cmwtwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pemkab+Bantul/@-7.9042123,110.3303908,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55937894c04f:0xa02ec066d55beefa!8m2!3d-7.9024317!4d110.3482722!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11g8cmwtwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1229,25 +1206,24 @@
           <t>(0274) 367337</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-7.879838</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.879838</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.330968</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Transito+Kabupaten+Bantul/@-7.8798382,110.3129436,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a56000218f28b:0xb5a15bc95a8e472d!8m2!3d-7.8798382!4d110.330968!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11hczxz4gg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Transito+Kabupaten+Bantul/@-7.8798382,110.3129436,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a56000218f28b:0xb5a15bc95a8e472d!8m2!3d-7.8798382!4d110.330968!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11hczxz4gg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1270,25 +1246,24 @@
           <t>(0274) 367325</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F21" t="n">
-        <v>3.8</v>
+        <v>-7.890649</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.890649</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.320835</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Inspektorat+Kabupaten+Bantul(%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%86%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%A0%EA%A7%80%EA%A6%8F%EA%A6%A7%EA%A6%B8%EA%A6%A5%EA%A6%A0%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80)/@-7.890649,110.3028104,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff50726d1b6b:0x4ee8178e63f93f88!8m2!3d-7.890649!4d110.3208348!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzpv8dft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Inspektorat+Kabupaten+Bantul(%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%86%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%A0%EA%A7%80%EA%A6%8F%EA%A6%A7%EA%A6%B8%EA%A6%A5%EA%A6%A0%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%A7%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80)/@-7.890649,110.3028104,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff50726d1b6b:0x4ee8178e63f93f88!8m2!3d-7.890649!4d110.3208348!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzpv8dft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1312,22 +1287,21 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-7.886627</v>
+      </c>
       <c r="G22" t="n">
-        <v>-7.886627</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.328087</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Organisasi+Setda+Kabupaten+Bantul/@-7.890649,110.3028104,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f467e305:0xf76b68732074a37f!8m2!3d-7.8866273!4d110.3280871!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F1pzv_g8vz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1350,25 +1324,24 @@
           <t>0813-5354-1946</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.839813</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.839813</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.313424</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Bangunjiwo/@-7.8398128,110.2953997,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7af88843aaab75:0x533e3f7c3c8e467!8m2!3d-7.8398128!4d110.3134241!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhOVTlsWkhaUlJSQULgAQD6AQQIABAn!16s%2Fg%2F11cn5ndyft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Bangunjiwo/@-7.8398128,110.2953997,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7af88843aaab75:0x533e3f7c3c8e467!8m2!3d-7.8398128!4d110.3134241!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhOVTlsWkhaUlJSQULgAQD6AQQIABAn!16s%2Fg%2F11cn5ndyft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1388,22 +1361,21 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-7.874815</v>
+      </c>
       <c r="G24" t="n">
-        <v>-7.874815</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.325513</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bupati+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7af90018307a3d:0x9cc4f24461698d0f!8m2!3d-7.8748148!4d110.3255131!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11vwlmlkwd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1423,22 +1395,21 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-7.886529</v>
+      </c>
       <c r="G25" t="n">
-        <v>-7.886529</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.32796</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Humas+dan+Protokol+Kabupaten+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff56f677c365:0xae89ad1743aaf0a2!8m2!3d-7.8865294!4d110.32796!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11bc7q94p1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1457,25 +1428,24 @@
           <t>0877-3422-2023</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.9</v>
+        <v>-7.889876</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.889876</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.317438</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UPT+KPP+Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7afff22484d62f:0xc719ccfcc6d9bdb5!8m2!3d-7.8898758!4d110.3174376!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmphSEpJV25KQlJSQULgAQD6AQQIABA1!16s%2Fg%2F11fmyjws7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/UPT+KPP+Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.8748148,110.3074887,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7afff22484d62f:0xc719ccfcc6d9bdb5!8m2!3d-7.8898758!4d110.3174376!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmphSEpJV25KQlJSQULgAQD6AQQIABA1!16s%2Fg%2F11fmyjws7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1498,25 +1468,24 @@
           <t>(0274) 367601</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>-7.895552</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.895552</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.346491</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Bantul/@-7.8955515,110.328467,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f13ff3d26d:0x9b71fe9cf72c74a7!8m2!3d-7.8955515!4d110.3464914!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlhblV0UVdWM0VBReABAPoBBAgAED0!16s%2Fg%2F1pzppjb_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Bantul/@-7.8955515,110.328467,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f13ff3d26d:0x9b71fe9cf72c74a7!8m2!3d-7.8955515!4d110.3464914!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlhblV0UVdWM0VBReABAPoBBAgAED0!16s%2Fg%2F1pzppjb_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1535,25 +1504,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.85632</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.85632</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.341274</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UPTD+Balai+Pelaksana+Penyuluhan+DPPKP+Kabupaten+Bantul/@-7.8563198,110.3232492,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57ca3c8c6f69:0xf5b87e6a7a360bea!8m2!3d-7.8563198!4d110.3412736!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkpNVTEyZGw5M1JSQULgAQD6AQQIABAp!16s%2Fg%2F11gw2nd6tf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/UPTD+Balai+Pelaksana+Penyuluhan+DPPKP+Kabupaten+Bantul/@-7.8563198,110.3232492,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a57ca3c8c6f69:0xf5b87e6a7a360bea!8m2!3d-7.8563198!4d110.3412736!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkpNVTEyZGw5M1JSQULgAQD6AQQIABAp!16s%2Fg%2F11gw2nd6tf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1572,25 +1540,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.890083</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.890083</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.325738</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff575957475b:0xcd94329e57da15dc!8m2!3d-7.8900829!4d110.3257382!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEHY291bmNpbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdExVNUxSSGwzUlJBQuABAPoBBAgAEEQ!16s%2Fg%2F1vwgycsd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff575957475b:0xcd94329e57da15dc!8m2!3d-7.8900829!4d110.3257382!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEHY291bmNpbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdExVNUxSSGwzUlJBQuABAPoBBAgAEEQ!16s%2Fg%2F1vwgycsd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1613,25 +1580,24 @@
           <t>(0274) 367509</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.8</v>
+        <v>-7.886631</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.886631</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.327478</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff568b6c4877:0x1fa8698e3d8d7691!8m2!3d-7.8866311!4d110.3274781!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnNaMDlpVG14QlJSQULgAQD6AQQIABAP!16s%2Fg%2F1pzstb1hv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Bantul/@-7.8900829,110.3077138,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff568b6c4877:0x1fa8698e3d8d7691!8m2!3d-7.8866311!4d110.3274781!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnNaMDlpVG14QlJSQULgAQD6AQQIABAP!16s%2Fg%2F1pzstb1hv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1658,25 +1624,24 @@
           <t>(0274) 367411</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.6</v>
+        <v>-7.893156</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.893156</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.336743</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Bantul/@-7.8931563,110.318719,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f6d369dabd:0x75f1e473d3f729e!8m2!3d-7.8931563!4d110.3367434!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOblpwTUZCUkVBReABAPoBBAgAEDE!16s%2Fg%2F1pzrsjmzt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Bantul/@-7.8931563,110.318719,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f6d369dabd:0x75f1e473d3f729e!8m2!3d-7.8931563!4d110.3367434!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOblpwTUZCUkVBReABAPoBBAgAEDE!16s%2Fg%2F1pzrsjmzt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1703,25 +1668,24 @@
           <t>(0274) 367348</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.890949</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.890949</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.325159</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.3071346,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEPY2l0eV9jb3VydGhvdXNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTWpWVE1sZDNFQUXgAQD6AQUIiQEQQQ!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pengadilan+Negeri+Bantul+Kelas+1B+%EA%A6%A6%EA%A6%BC%EA%A6%94%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80%EA%A6%9F%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%8F%EA%A6%BC%EA%A6%AD%EA%A6%B1%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A7%EA%A7%88/@-7.890949,110.3071346,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5771dc57cb61:0x80d3a28b6b026bf5!8m2!3d-7.890949!4d110.325159!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEPY2l0eV9jb3VydGhvdXNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTWpWVE1sZDNFQUXgAQD6AQUIiQEQQQ!16s%2Fg%2F1hdz84jw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1744,25 +1708,24 @@
           <t>(0274) 2810074</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.905501</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.905501</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.349857</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bagian+Pengadaan+Barang+dan+Jasa+Setda+Kabupaten+Bantul/@-7.9055013,110.3318323,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55673a64f995:0x9141c80f480e2aab!8m2!3d-7.9055013!4d110.3498567!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBhbEJRU2pSQlJSQULgAQD6AQQIABAP!16s%2Fg%2F11gj19j6h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bagian+Pengadaan+Barang+dan+Jasa+Setda+Kabupaten+Bantul/@-7.9055013,110.3318323,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55673a64f995:0x9141c80f480e2aab!8m2!3d-7.9055013!4d110.3498567!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBhbEJRU2pSQlJSQULgAQD6AQQIABAP!16s%2Fg%2F11gj19j6h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1785,25 +1748,24 @@
           <t>(0274) 367032</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>-7.893082</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.893082</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.336402</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Administrasi+Veteran+dan+Cadangan+IV-15%2FBantul/@-7.8930822,110.3183771,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f5d32c3097:0xb626715013982158!8m2!3d-7.8930822!4d110.3364015!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11hzy7sk01?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Administrasi+Veteran+dan+Cadangan+IV-15%2FBantul/@-7.8930822,110.3183771,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55f5d32c3097:0xb626715013982158!8m2!3d-7.8930822!4d110.3364015!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11hzy7sk01?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1822,25 +1784,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F35" t="n">
-        <v>3.8</v>
+        <v>-7.88982</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.88982</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.354466</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Sabdodadi/@-7.8898197,110.3364414,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55e8030ee6f9:0x461a084162d55492!8m2!3d-7.8898197!4d110.3544658!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVNMDE1Ymw5QlJSQULgAQD6AQQIABAU!16s%2Fg%2F11c5sx45mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Sabdodadi/@-7.8898197,110.3364414,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55e8030ee6f9:0x461a084162d55492!8m2!3d-7.8898197!4d110.3544658!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVNMDE1Ymw5QlJSQULgAQD6AQQIABAU!16s%2Fg%2F11c5sx45mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1864,22 +1825,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.904792</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.904792</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.347917</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Immigration+Office+(Unit+Layanan+Paspor+Bantul)/@-7.8898197,110.3364414,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a550078ed2883:0xb76ea9504453cefd!8m2!3d-7.9047917!4d110.3479165!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARFnb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11lzk6j1s_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1899,22 +1859,21 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.886393</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.886393</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.327757</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bagian+Umum+Setda+Kabupaten+Bantul/@-7.886393,110.3097324,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7aff4f71a08965:0x301b2eb7d929900e!8m2!3d-7.886393!4d110.3277568!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11gl57hd18?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1937,25 +1896,24 @@
           <t>(0274) 6469008</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>-7.905252</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.905252</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.348589</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Sosial+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5596a70bd147:0x1ea26ae12ce5e12e!8m2!3d-7.9052517!4d110.348589!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMV1F5YVc1M1JSQULgAQD6AQQIABA8!16s%2Fg%2F11bw4zk7s1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Sosial+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a5596a70bd147:0x1ea26ae12ce5e12e!8m2!3d-7.9052517!4d110.348589!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJMV1F5YVc1M1JSQULgAQD6AQQIABA8!16s%2Fg%2F11bw4zk7s1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1982,25 +1940,24 @@
           <t>(0274) 6460181</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.905111</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.905111</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.347578</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ea37bdc66b:0x844f1e0d9a14e317!8m2!3d-7.9051107!4d110.3475779!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTllPSEJNTjI5blJSQULgAQD6AQQIABAa!16s%2Fg%2F1pzq4rpdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Bantul/@-7.9052517,110.3305646,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a55ea37bdc66b:0x844f1e0d9a14e317!8m2!3d-7.9051107!4d110.3475779!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTllPSEJNTjI5blJSQULgAQD6AQQIABAa!16s%2Fg%2F1pzq4rpdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2020,22 +1977,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.886206</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.886206</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.327676</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bagian+Tata+Pemerintahan+Setda+Kabupaten+Bantul/@-7.8862063,110.3096519,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7affcf1a1bba65:0x3ac434ea87c4c5e5!8m2!3d-7.8862063!4d110.3276763!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2WSARRjaXR5X2Rpc3RyaWN0X29mZmljZeABAA!16s%2Fg%2F11sx41bbzq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2058,25 +2014,24 @@
           <t>(0274) 2810756</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.905081</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.905081</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.350423</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Kabupaten+Bantul/@-7.9050808,110.332399,15z/data=!4m10!1m2!2m1!1sBantul+Government+office!3m6!1s0x2e7a56231e404f79:0xbca610b4623bd1e8!8m2!3d-7.9050808!4d110.3504234!15sChhCYW50dWwgR292ZXJubWVudCBvZmZpY2VaGiIYYmFudHVsIGdvdmVybm1lbnQgb2ZmaWNlkgEUY2l0eV9kaXN0cmljdF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlhkV0Z5U1d0blJSQULgAQD6AQQIABAm!16s%2Fg%2F11f5t_jlnw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2091,25 +2046,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.4</v>
+        <v>-7.964048</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.964048</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.601268</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Bupati+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3438742361b:0x59e3e760c949edf7!8m2!3d-7.964048!4d110.601268!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F12hpjr3vk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Bupati+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3438742361b:0x59e3e760c949edf7!8m2!3d-7.964048!4d110.601268!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F12hpjr3vk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2136,25 +2090,24 @@
           <t>(0274) 391287</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.2</v>
+        <v>-7.961801</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.961801</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.600544</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kependudukan+Dan+Pencatatan+Sipil+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fa428975:0xef7d9a985b949b04!8m2!3d-7.9618007!4d110.6005437!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEPcmVnaXN0cnlfb2ZmaWNl4AEA!16s%2Fg%2F1pv0bctjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kependudukan+Dan+Pencatatan+Sipil+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fa428975:0xef7d9a985b949b04!8m2!3d-7.9618007!4d110.6005437!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEPcmVnaXN0cnlfb2ZmaWNl4AEA!16s%2Fg%2F1pv0bctjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2177,25 +2130,24 @@
           <t>(0274) 391048</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>-7.952374</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.952374</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.587718</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xf9d96279c53a819b!8m2!3d-7.9523741!4d110.5877175!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6v66y9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xf9d96279c53a819b!8m2!3d-7.9523741!4d110.5877175!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6v66y9d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2222,25 +2174,24 @@
           <t>(0274) 391942</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.4</v>
+        <v>-7.961879</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.961879</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.600856</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+(+DPMPTSP+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3444ca72631:0xb104709a5322f518!8m2!3d-7.9618787!4d110.6008555!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gbwyj44d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Penanaman+Modal+dan+Pelayanan+Terpadu+Satu+Pintu+(+DPMPTSP+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3444ca72631:0xb104709a5322f518!8m2!3d-7.9618787!4d110.6008555!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gbwyj44d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2263,25 +2214,24 @@
           <t>0898-9293-008</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.9</v>
+        <v>-7.963986</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.963986</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.601788</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Layanan+Informasi+Publik+Pemerintah+Kabupaten+Gunungkidul+(PPID)/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb39ffcc44e43:0x7398cb6f74efea7!8m2!3d-7.9639865!4d110.6017883!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11lh53ljwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Layanan+Informasi+Publik+Pemerintah+Kabupaten+Gunungkidul+(PPID)/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb39ffcc44e43:0x7398cb6f74efea7!8m2!3d-7.9639865!4d110.6017883!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11lh53ljwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2304,25 +2254,24 @@
           <t>(0274) 391191</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.2</v>
+        <v>-7.969252</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.969252</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.611108</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35e9c36cf6d:0x28ff8df8d549b0e!8m2!3d-7.9692522!4d110.6111076!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c1plqvdh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35e9c36cf6d:0x28ff8df8d549b0e!8m2!3d-7.9692522!4d110.6111076!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c1plqvdh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2349,25 +2298,24 @@
           <t>(0274) 391393</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.1</v>
+        <v>-7.968985</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.968985</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.595402</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34033de6555:0x578b6bfced7e7e97!8m2!3d-7.9689851!4d110.5954016!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1ptyn_81n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Pendidikan+dan+Pelatihan+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34033de6555:0x578b6bfced7e7e97!8m2!3d-7.9689851!4d110.5954016!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1ptyn_81n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2390,25 +2338,24 @@
           <t>(0274) 391083</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-7.964414</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.964414</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.602069</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Keuangan+dan+Aset+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343807811b5:0xa81e81d685adaf49!8m2!3d-7.9644142!4d110.6020688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6yzlrkk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Keuangan+dan+Aset+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343807811b5:0xa81e81d685adaf49!8m2!3d-7.9644142!4d110.6020688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c6yzlrkk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2427,25 +2374,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F50" t="n">
-        <v>3.7</v>
+        <v>-7.959429</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.959429</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.594177</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Koperasi,+Usaha+Kecil+dan+Menengah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3447fba0933:0x8d08276b86ed4969!8m2!3d-7.9594291!4d110.5941768!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxhzsjy4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Koperasi,+Usaha+Kecil+dan+Menengah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3447fba0933:0x8d08276b86ed4969!8m2!3d-7.9594291!4d110.5941768!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxhzsjy4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2468,25 +2414,24 @@
           <t>(0274) 391411</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>-7.963498</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.963498</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.60196</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DINAS+PEMBERDAYAAN+MASYARAKAT+DAN+KALURAHAN,+PENGENDALIAN+PENDUDUK+DAN+KELUARGA+BERENCANA/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3880a3f8789:0x80c777bd3463883a!8m2!3d-7.963498!4d110.6019596!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11t9j_nxf7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DINAS+PEMBERDAYAAN+MASYARAKAT+DAN+KALURAHAN,+PENGENDALIAN+PENDUDUK+DAN+KELUARGA+BERENCANA/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3880a3f8789:0x80c777bd3463883a!8m2!3d-7.963498!4d110.6019596!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11t9j_nxf7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2509,25 +2454,24 @@
           <t>(0274) 394226</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F52" t="n">
-        <v>3.9</v>
+        <v>-7.954609</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.954609</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.589625</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Sosial,+Pemberdayaan+Perempuan+dan+Perlindungan+Anak+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3342a47f97b:0xd2109eb1734aa070!8m2!3d-7.954609!4d110.5896251!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEdZGVwYXJ0bWVudF9vZl9zb2NpYWxfc2VydmljZXPgAQA!16s%2Fg%2F1ptxpqx90?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Sosial,+Pemberdayaan+Perempuan+dan+Perlindungan+Anak+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3342a47f97b:0xd2109eb1734aa070!8m2!3d-7.954609!4d110.5896251!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEdZGVwYXJ0bWVudF9vZl9zb2NpYWxfc2VydmljZXPgAQA!16s%2Fg%2F1ptxpqx90?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2550,25 +2494,24 @@
           <t>(0274) 391797</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F53" t="n">
-        <v>3.7</v>
+        <v>-7.939882</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.939882</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.59443</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb36eaf16127b:0xbafbba85c64d7121!8m2!3d-7.9398823!4d110.5944303!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzxhlbyc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb36eaf16127b:0xbafbba85c64d7121!8m2!3d-7.9398823!4d110.5944303!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzxhlbyc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2591,25 +2534,24 @@
           <t>(0274) 391761</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.6</v>
+        <v>-7.965534</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.965534</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.601434</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BAPPEDA+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c894df3:0x72831c334fb077bd!8m2!3d-7.9655339!4d110.6014342!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F125_skqkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BAPPEDA+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c894df3:0x72831c334fb077bd!8m2!3d-7.9655339!4d110.6014342!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F125_skqkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2628,25 +2570,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.7</v>
+        <v>-7.965446</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.965446</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.59988</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343d0d115d3:0x7a5a60b843ee74f9!8m2!3d-7.9654458!4d110.5998802!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEaZGlzdHJpY3RfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzwlxszt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343d0d115d3:0x7a5a60b843ee74f9!8m2!3d-7.9654458!4d110.5998802!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEaZGlzdHJpY3RfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzwlxszt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2669,25 +2610,24 @@
           <t>(0274) 391150</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.5</v>
+        <v>-7.959456</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.959456</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.594134</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Perdagangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fb5c0329:0x299d4cb93e60f609!8m2!3d-7.9594559!4d110.5941335!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzr961q8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Perdagangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342fb5c0329:0x299d4cb93e60f609!8m2!3d-7.9594559!4d110.5941335!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzr961q8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2706,25 +2646,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.6</v>
+        <v>-7.964311</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.964311</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.601588</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3eb87764a4f:0x2a9dfa6377bec091!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gmz89q0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekretariat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3eb87764a4f:0x2a9dfa6377bec091!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11gmz89q0f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2747,25 +2686,24 @@
           <t>(0274) 391259</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.964448</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.964448</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.601878</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38b36b7d37b:0xebdbdc4f203855b2!8m2!3d-7.9644476!4d110.6018776!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11rzrv3xv5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Komunikasi+dan+Informatika+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38b36b7d37b:0xebdbdc4f203855b2!8m2!3d-7.9644476!4d110.6018776!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11rzrv3xv5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2792,25 +2730,24 @@
           <t>(0274) 391305</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.1</v>
+        <v>-7.939916</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.939916</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.594019</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7e9d0b09f:0x56999ce35b3ff5e2!8m2!3d-7.9399165!4d110.5940191!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dx9b2x1w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pertanahan+Nasional+(+ATR%2FBPN+)+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7e9d0b09f:0x56999ce35b3ff5e2!8m2!3d-7.9399165!4d110.5940191!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dx9b2x1w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2833,25 +2770,24 @@
           <t>(0274) 391317</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.6</v>
+        <v>-7.962999</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.962999</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.602609</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanian+dan+Pangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344896f2b41:0xdbc2009584ec0536!8m2!3d-7.9629995!4d110.6026094!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1thzr6c4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanian+dan+Pangan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344896f2b41:0xdbc2009584ec0536!8m2!3d-7.9629995!4d110.6026094!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1thzr6c4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2874,25 +2810,24 @@
           <t>0857-7078-5054</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.1</v>
+        <v>-7.976018</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.976018</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.610696</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Baleharjo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3641973e5d9:0xfa92aca6c926cf17!8m2!3d-7.9760181!4d110.6106955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c1s5z8y7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Baleharjo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3641973e5d9:0xfa92aca6c926cf17!8m2!3d-7.9760181!4d110.6106955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c1s5z8y7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2915,25 +2850,24 @@
           <t>(0274) 7103953</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>-7.85179</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.85179</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.489564</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Pemuda+dan+Olahraga/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4de6304f31cf:0x49d1594d76ea197!8m2!3d-7.8517899!4d110.4895641!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gh35x6bk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Pemuda+dan+Olahraga/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4de6304f31cf:0x49d1594d76ea197!8m2!3d-7.8517899!4d110.4895641!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gh35x6bk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2956,25 +2890,24 @@
           <t>(0274) 391086</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.945605</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.945605</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.586818</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Kabupaten+Gunungkidul+Prov.+D.I.Yogyakarta/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343305201e3:0xfd533329d627fccf!8m2!3d-7.9456048!4d110.5868182!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F11g6bh1hz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Kabupaten+Gunungkidul+Prov.+D.I.Yogyakarta/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343305201e3:0xfd533329d627fccf!8m2!3d-7.9456048!4d110.5868182!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F11g6bh1hz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2993,25 +2926,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>-7.965146</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.965146</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.601766</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Dinas+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c5665d1:0xd5e4b92a70b0ac20!8m2!3d-7.9651458!4d110.6017657!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11g9jnt06y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Dinas+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3439c5665d1:0xd5e4b92a70b0ac20!8m2!3d-7.9651458!4d110.6017657!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11g9jnt06y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3030,25 +2962,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>-7.972256</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.972256</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.564039</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pemerintah+Kalurahan+Pulutan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2e0b0a38bf5:0xc83347d8c3e86356!8m2!3d-7.9722559!4d110.5640392!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn7mbt8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pemerintah+Kalurahan+Pulutan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2e0b0a38bf5:0xc83347d8c3e86356!8m2!3d-7.9722559!4d110.5640392!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn7mbt8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3072,22 +3003,21 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>-7.924916</v>
+      </c>
       <c r="G66" t="n">
-        <v>-7.924916</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.594608</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Sementara+BPS+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d003c6f66a3:0x7fe5dcefe3e8244a!8m2!3d-7.9249161!4d110.5946083!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11vsc_my5v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3110,25 +3040,24 @@
           <t>(0274) 391005</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.2</v>
+        <v>-7.964777</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.964777</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.599242</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pekerjaan+Umum+Perumahan+Rakyat+Dan+Kawasan+Permukiman+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a6ab0e0774ee1:0xf3a5c3c430865244!8m2!3d-7.9647766!4d110.5992419!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE9FMHljVEZuUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1pzqv5m95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pekerjaan+Umum+Perumahan+Rakyat+Dan+Kawasan+Permukiman+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a6ab0e0774ee1:0xf3a5c3c430865244!8m2!3d-7.9647766!4d110.5992419!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE9FMHljVEZuUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1pzqv5m95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3155,25 +3084,24 @@
           <t>(0274) 391503</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F68" t="n">
-        <v>3.9</v>
+        <v>-7.963965</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.963965</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.603469</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34352026995:0xf28b23988ae50b19!8m2!3d-7.9639648!4d110.6034688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhwdWJsaWNfaGVhbHRoX2RlcGFydG1lbnSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSFpVUzBGUkVBReABAPoBBQj0AhAv!16s%2Fg%2F1pzqs2ck2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34352026995:0xf28b23988ae50b19!8m2!3d-7.9639648!4d110.6034688!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhwdWJsaWNfaGVhbHRoX2RlcGFydG1lbnSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlhhSFpVUzBGUkVBReABAPoBBQj0AhAv!16s%2Fg%2F1pzqs2ck2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3196,25 +3124,24 @@
           <t>(0274) 391440</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.3</v>
+        <v>-7.948115</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.948115</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.58391</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Lingkungan+Hidup+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3403385de8b:0xb8108347744607ca!8m2!3d-7.9481153!4d110.5839099!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaGVDMTVPWEpuUlJBQuABAPoBBAgAECE!16s%2Fg%2F11dxlf_b8n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3233,25 +3160,24 @@
           <t>(0274) 3913930</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>-7.964224</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.964224</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.601142</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Sekretaris+Daerah+Dan+Badan+Kepegawaian+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342f9602aa3:0x288c8797ecb16931!8m2!3d-7.9642241!4d110.6011415!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11b6dqbc4t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3266,25 +3192,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.1</v>
+        <v>-7.887512</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.887512</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.61862</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Nglipar+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4b8a8c375a99:0x3700d932a3f32837!8m2!3d-7.887512!4d110.6186203!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c2qlt9gv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Nglipar+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4b8a8c375a99:0x3700d932a3f32837!8m2!3d-7.887512!4d110.6186203!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c2qlt9gv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3303,25 +3228,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.5</v>
+        <v>-7.871624</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.871624</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.560896</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kalurahan+Nglegi,+Patuk,+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d6e5a89408b:0xb6d507672d8d4ebd!8m2!3d-7.8716241!4d110.5608955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1WcGxkelZuUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11j8lvhsmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kalurahan+Nglegi,+Patuk,+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d6e5a89408b:0xb6d507672d8d4ebd!8m2!3d-7.8716241!4d110.5608955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeE1WcGxkelZuUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11j8lvhsmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3340,25 +3264,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.5</v>
+        <v>-7.953722</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.953722</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.528596</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Dengok/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2acbc2cb25f:0x46b0ee5c32ca276!8m2!3d-7.9537222!4d110.5285955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTGRVdERUMnQzUlJBQuABAPoBBAgAECs!16s%2Fg%2F11c46b6x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Dengok/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb2acbc2cb25f:0x46b0ee5c32ca276!8m2!3d-7.9537222!4d110.5285955!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTGRVdERUMnQzUlJBQuABAPoBBAgAECs!16s%2Fg%2F11c46b6x2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3381,25 +3304,24 @@
           <t>(0274) 391031</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4</v>
+      </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>-7.954412</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.954412</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.590063</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pariwisata+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb335d4796d7f:0x580a4eafcc198a09!8m2!3d-7.9544122!4d110.5900627!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS05uRmhPV3gzUlJBQuABAPoBBAgAEBk!16s%2Fg%2F11c0xm9t6f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pariwisata+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb335d4796d7f:0x580a4eafcc198a09!8m2!3d-7.9544122!4d110.5900627!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS05uRmhPV3gzUlJBQuABAPoBBAgAEBk!16s%2Fg%2F11c0xm9t6f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3419,22 +3341,21 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>-7.964881</v>
+      </c>
       <c r="G75" t="n">
-        <v>-7.964881</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.604519</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DINAS+KEPEMUDAAN+DAN+OLAHRAGA+(DISPORA)+KABUPATEN+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3706f4d15c5:0x23627d8936f4ad80!8m2!3d-7.9648812!4d110.6045194!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11ts2g7904?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3449,25 +3370,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.2</v>
+        <v>-7.940281</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.940281</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.597112</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Piyaman/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7a08a5fef:0x64b19e098ac4c0d!8m2!3d-7.9402809!4d110.5971117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dyzc30k1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Piyaman/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb7a08a5fef:0x64b19e098ac4c0d!8m2!3d-7.9402809!4d110.5971117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dyzc30k1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3490,25 +3410,24 @@
           <t>(0274) 391030</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.8</v>
+        <v>-7.966129</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.966129</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.600457</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3469243b847:0x5e1d1f02ab5d3fcf!8m2!3d-7.9661291!4d110.6004569!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQdjb3VuY2lsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTVRkNlRGQkJFQUXgAQD6AQQIOBA-!16s%2Fg%2F11b6dq72js?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+DPRD+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3469243b847:0x5e1d1f02ab5d3fcf!8m2!3d-7.9661291!4d110.6004569!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQdjb3VuY2lsmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyTVRkNlRGQkJFQUXgAQD6AQQIOBA-!16s%2Fg%2F11b6dq72js?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3531,25 +3450,24 @@
           <t>(0274) 391313</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.5</v>
+        <v>-7.964935</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.964935</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.599866</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343f1da4281:0x2a4cb21d29415480!8m2!3d-7.9649349!4d110.5998661!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1qbEhUMVZuRUFF4AEA-gEECAAQHg!16s%2Fg%2F1pzwl8hcc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kementerian+Agama+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343f1da4281:0x2a4cb21d29415480!8m2!3d-7.9649349!4d110.5998661!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1qbEhUMVZuRUFF4AEA-gEECAAQHg!16s%2Fg%2F1pzwl8hcc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3568,25 +3486,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F79" t="n">
-        <v>3.8</v>
+        <v>-7.964151</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.964151</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.603726</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Dinas+Wakil+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344a0a8d7ff:0xc424d71ee661b609!8m2!3d-7.9641507!4d110.6037258!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11bc7myftd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Dinas+Wakil+Bupati+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344a0a8d7ff:0xc424d71ee661b609!8m2!3d-7.9641507!4d110.6037258!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11bc7myftd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3613,25 +3530,24 @@
           <t>(0274) 391086</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.3</v>
+        <v>-7.965767</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.965767</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.605061</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Gunungkidul./@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343374a3aa1:0xc334a66ec4ff328a!8m2!3d-7.965767!4d110.6050614!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhjb3VudHlfZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhbk5YY25sM1JSQULgAQD6AQQISRAu!16s%2Fg%2F11g6xl673h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Kebudayaan+Gunungkidul./@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343374a3aa1:0xc334a66ec4ff328a!8m2!3d-7.965767!4d110.6050614!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARhjb3VudHlfZ292ZXJubWVudF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhbk5YY25sM1JSQULgAQD6AQQISRAu!16s%2Fg%2F11g6xl673h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -3650,25 +3566,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.963595</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.963595</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.601926</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DP3AKBPMK+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3a580c839d7:0x9bc4ca24a6a3827d!8m2!3d-7.963595!4d110.601926!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMU0zSXRkM0ZCUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11hy__wjfs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DP3AKBPMK+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3a580c839d7:0x9bc4ca24a6a3827d!8m2!3d-7.963595!4d110.601926!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMU0zSXRkM0ZCUlJBQuABAPoBBAgAEBU!16s%2Fg%2F11hy__wjfs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3688,22 +3603,21 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-7.965094</v>
+      </c>
       <c r="G82" t="n">
-        <v>-7.965094</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.599645</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Kesatuan+Bangsa+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343e5397bbb:0x36eab611c798edcd!8m2!3d-7.9650941!4d110.5996445!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEXbG9jYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c6qdx03r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3722,25 +3636,24 @@
           <t>(0274) 391316</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.7</v>
+        <v>-7.966648</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.966648</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.599842</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Kelautan+Dan+Perikanan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343ce093ed7:0xb18b795a51553b1d!8m2!3d-7.9666478!4d110.5998423!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F1pzpz4ny9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3756,22 +3669,21 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.966268</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.966268</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.604895</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PKBI+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35ccd6fe699:0xc97bfeeb8556a7e0!8m2!3d-7.9662679!4d110.6048954!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEZZmVkZXJhbF9nb3Zlcm5tZW50X29mZmljZeABAA!16s%2Fg%2F11cs7fjpxj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3786,25 +3698,24 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>-7.967941</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.967941</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.598</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Panwaslu+Kab.+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3419120b80b:0x7f5ab94536f25c6e!8m2!3d-7.9679411!4d110.5980004!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11f5bnnyyf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Panwaslu+Kab.+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3419120b80b:0x7f5ab94536f25c6e!8m2!3d-7.9679411!4d110.5980004!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11f5bnnyyf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3831,25 +3742,24 @@
           <t>(0274) 2901553</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.3</v>
+        <v>-7.945826</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.945826</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.581699</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Dikmen+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d5046a15835:0x63931a13c4496187!8m2!3d-7.9458256!4d110.5816985!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gwnf5t4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Dikmen+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d5046a15835:0x63931a13c4496187!8m2!3d-7.9458256!4d110.5816985!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11gwnf5t4d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3872,25 +3782,24 @@
           <t>(0274) 391155</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>-7.9671</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.9671</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.601102</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Perindagkop/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3424dafdd6d:0x90c6b5f1a703b522!8m2!3d-7.9670999!4d110.6011019!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzy05n45?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3910,22 +3819,21 @@
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>-7.962214</v>
+      </c>
       <c r="G88" t="n">
-        <v>-7.962214</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.60167</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Pelayanan+Terpadu+Perlindungan+Perempuan+dan+Anak+Kabupeten+Gunungkidul+(+P2TP2A+)/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3a3b3925d03:0x8029a340d699648b!8m2!3d-7.962214!4d110.6016695!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11jly69bgn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3944,25 +3852,24 @@
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.7</v>
+        <v>-7.964311</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.964311</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.601588</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BIDANG+UMKM+KAB.GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3c6fc598e8f:0xb539e6942ef2ecf2!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgETdW5lbXBsb3ltZW50X29mZmljZeABAA!16s%2Fg%2F11t7mwyv56?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BIDANG+UMKM+KAB.GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3c6fc598e8f:0xb539e6942ef2ecf2!8m2!3d-7.9643111!4d110.6015878!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgETdW5lbXBsb3ltZW50X29mZmljZeABAA!16s%2Fg%2F11t7mwyv56?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3981,25 +3888,24 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>-7.963449</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.963449</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.602449</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bidang+Tanaman+Pangan+dan+Hortikultura+DPKP+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3448da1e087:0x5bbe455a44244072!8m2!3d-7.9634492!4d110.6024488!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c5s9nkp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bidang+Tanaman+Pangan+dan+Hortikultura+DPKP+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3448da1e087:0x5bbe455a44244072!8m2!3d-7.9634492!4d110.6024488!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11c5s9nkp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -4018,25 +3924,24 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.3</v>
+        <v>-7.982178</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.982178</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.714953</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Ponjong/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bca8057720117:0x8fc80102b3c5099f!8m2!3d-7.9821781!4d110.7149527!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU1VdE1RMnhSUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11c3nzn108?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Ponjong/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bca8057720117:0x8fc80102b3c5099f!8m2!3d-7.9821781!4d110.7149527!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARFnb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNU1VdE1RMnhSUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11c3nzn108?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4055,25 +3960,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.5</v>
+        <v>-7.937825</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.937825</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.574599</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Logandeng/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3366f0a5725:0x178b98cffb85dec5!8m2!3d-7.9378248!4d110.5745989!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzv3k80s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Logandeng/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3366f0a5725:0x178b98cffb85dec5!8m2!3d-7.9378248!4d110.5745989!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzv3k80s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4092,25 +3996,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>-7.916467</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.916467</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.582866</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Dusun+Ngijorejo+Gari+Wonosari+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d7a55afaeb9:0xf11de25d3ae06f28!8m2!3d-7.9164671!4d110.5828662!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11jjm1vjb8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Dusun+Ngijorejo+Gari+Wonosari+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d7a55afaeb9:0xf11de25d3ae06f28!8m2!3d-7.9164671!4d110.5828662!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11jjm1vjb8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4134,22 +4037,21 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>-7.971505</v>
+      </c>
       <c r="G94" t="n">
-        <v>-7.971505</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.581423</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KANTOR+BPBD+WONOSARI/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb31ea1d1fca7:0x76bc2a7ac154bd3c!8m2!3d-7.9715046!4d110.5814232!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11ry5gwn19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4169,22 +4071,21 @@
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>-7.951853</v>
+      </c>
       <c r="G95" t="n">
-        <v>-7.951853</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.61492</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Unit+Pelaksana+Teknis+Dinas+Balai+Pembenihan+%26+Pembibitan+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb355b91e4115:0x61280fefb024f35a!8m2!3d-7.9518533!4d110.6149203!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11c716s5m5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4199,25 +4100,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.8</v>
+        <v>-7.954256</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.954256</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.589902</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Peternakan+dan+Kesehatan+Hewan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3fedc7576bd:0x8393ace191b6bd29!8m2!3d-7.9542557!4d110.5899024!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYU1FdzNSbTluUlJBQuABAPoBBAgAEEU!16s%2Fg%2F11s42vpqk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Peternakan+dan+Kesehatan+Hewan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3fedc7576bd:0x8393ace191b6bd29!8m2!3d-7.9542557!4d110.5899024!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYU1FdzNSbTluUlJBQuABAPoBBAgAEEU!16s%2Fg%2F11s42vpqk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -4244,25 +4144,24 @@
           <t>(0274) 391539</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.1</v>
+        <v>-7.962577</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.962577</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.602754</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Inspektorat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344ee1c585f:0x8ae317d0129db229!8m2!3d-7.9625771!4d110.6027538!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxmkz348?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Inspektorat+Daerah+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb344ee1c585f:0x8ae317d0129db229!8m2!3d-7.9625771!4d110.6027538!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11dxmkz348?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -4289,25 +4188,24 @@
           <t>(0274) 391537</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.8</v>
+        <v>-7.965516</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.965516</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.600099</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Kesatuan+Bangsa+Dan+Politik+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343e983a2f3:0x1511da484bdcf366!8m2!3d-7.9655164!4d110.6000988!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObGR6bG1WakozUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11c6y_0nlz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Kesatuan+Bangsa+Dan+Politik+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb343e983a2f3:0x1511da484bdcf366!8m2!3d-7.9655164!4d110.6000988!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObGR6bG1WakozUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11c6y_0nlz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4330,25 +4228,24 @@
           <t>(0274) 391473</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>-7.964028</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.964028</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.608292</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kelurahan+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35c7f04160d:0x34f1e9edb6fa6222!8m2!3d-7.9640279!4d110.608292!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bxg1m8tc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kelurahan+Wonosari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35c7f04160d:0x34f1e9edb6fa6222!8m2!3d-7.9640279!4d110.608292!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bxg1m8tc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -4375,25 +4272,24 @@
           <t>(0274) 391083</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>-7.964212</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.964212</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.601884</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LPSE+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342ffee1649:0xb57850125c58f8b7!8m2!3d-7.9642122!4d110.6018838!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWNtVkVORkYzRUFF4AEA-gEECAAQJw!16s%2Fg%2F11bc7qnzqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/LPSE+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb342ffee1649:0xb57850125c58f8b7!8m2!3d-7.9642122!4d110.6018838!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWNtVkVORkYzRUFF4AEA-gEECAAQJw!16s%2Fg%2F11bc7qnzqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4412,25 +4308,24 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.9</v>
+        <v>-7.878135</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.878135</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.598586</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Pengkol/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e77621257f6bf7b:0x77339564ef5db48a!8m2!3d-7.8781353!4d110.5985855!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bwyyfnnw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Pengkol/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e77621257f6bf7b:0x77339564ef5db48a!8m2!3d-7.8781353!4d110.5985855!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bwyyfnnw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -4457,25 +4352,24 @@
           <t>(0274) 391210</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F102" t="n">
-        <v>4.3</v>
+        <v>-7.940092</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.940092</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.593457</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KPU+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb73733cc35:0xcc1ec23fe138f384!8m2!3d-7.9400924!4d110.5934568!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARl2b3Rlcl9yZWdpc3RyYXRpb25fb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJhTlZwcWJVdFJFQUXgAQD6AQQIABAj!16s%2Fg%2F11bc7l8xfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KPU+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4cb73733cc35:0xcc1ec23fe138f384!8m2!3d-7.9400924!4d110.5934568!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARl2b3Rlcl9yZWdpc3RyYXRpb25fb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJhTlZwcWJVdFJFQUXgAQD6AQQIABAj!16s%2Fg%2F11bc7l8xfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4494,25 +4388,24 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
       <c r="F103" t="n">
-        <v>4</v>
+        <v>-7.967252</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.967252</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.620312</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Selang/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb4a1c992da71:0x12ed3e980f762654!8m2!3d-7.9672523!4d110.6203117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11fx919p28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kalurahan+Selang/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb4a1c992da71:0x12ed3e980f762654!8m2!3d-7.9672523!4d110.6203117!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11fx919p28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4535,25 +4428,24 @@
           <t>(0274) 7497991</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F104" t="n">
-        <v>4.5</v>
+        <v>-8.068721999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-8.068721999999999</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.589482</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tanjungsari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb1046c606735:0xb35ab12b548bd072!8m2!3d-8.0687217!4d110.5894823!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGRuRXRVREJCUlJBQuABAPoBBAgAEDI!16s%2Fg%2F1pzpzxb9t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tanjungsari/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb1046c606735:0xb35ab12b548bd072!8m2!3d-8.0687217!4d110.5894823!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGRuRXRVREJCUlJBQuABAPoBBAgAEDI!16s%2Fg%2F1pzpzxb9t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4576,25 +4468,24 @@
           <t>(0274) 7133273</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F105" t="n">
-        <v>3.6</v>
+        <v>-8.091357</v>
       </c>
       <c r="G105" t="n">
-        <v>-8.091357</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.627342</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tepus/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb0b54c62dbed:0x1917bc17c61f5c5e!8m2!3d-8.0913569!4d110.6273424!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1XRTNURVpCRUFF4AEA-gEFCKICEEQ!16s%2Fg%2F1pzv3kkwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Tepus/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb0b54c62dbed:0x1917bc17c61f5c5e!8m2!3d-8.0913569!4d110.6273424!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1XRTNURVpCRUFF4AEA-gEFCKICEEQ!16s%2Fg%2F1pzv3kkwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4618,22 +4509,21 @@
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>-7.961022</v>
+      </c>
       <c r="G106" t="n">
-        <v>-7.961022</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.593962</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KANTOR+PENDAMPING+DESA+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3479251891f:0x8e32e968fe5ca8e0!8m2!3d-7.9610216!4d110.5939616!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cjtjx9fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4649,22 +4539,21 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>-7.965392</v>
+      </c>
       <c r="G107" t="n">
-        <v>-7.965392</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.604613</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Dinas+Ketua+DPRD+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3434a0327e9:0x91bd1a85f1918e69!8m2!3d-7.9653922!4d110.6046129!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11g6vnv5vz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4683,25 +4572,24 @@
           <t>(0274) 7489296</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F108" t="n">
-        <v>4.3</v>
+        <v>-8.002734999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-8.002734999999999</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.508526</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Paliyan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb27713c3d25d:0xfa826fb275f92e8a!8m2!3d-8.0027352!4d110.5085264!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2QwMUxibk5CUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1pzr2k40x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J108" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Paliyan/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb27713c3d25d:0xfa826fb275f92e8a!8m2!3d-8.0027352!4d110.5085264!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSQ2QwMUxibk5CUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1pzr2k40x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4725,22 +4613,21 @@
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>-7.971432</v>
+      </c>
       <c r="G109" t="n">
-        <v>-7.971432</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.580585</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PSC+119+GUNUNGKIDUL/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb30032a5f80f:0x33f3bee66bcf1dfe!8m2!3d-7.9714317!4d110.580585!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11vzvnqqvd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4763,25 +4650,24 @@
           <t>(0274) 392001</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.9</v>
+        <v>-7.975954</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.975954</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.599111</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BPJS+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34455d7bd7f:0xfadd54acf590c99f!8m2!3d-7.9759545!4d110.5991108!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARZzb2NpYWxfc2VjdXJpdHlfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5NTnpjeU9ITlJSUkFC4AEA-gEECB8QOg!16s%2Fg%2F1pzrvpffy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BPJS+Kesehatan+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb34455d7bd7f:0xfadd54acf590c99f!8m2!3d-7.9759545!4d110.5991108!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARZzb2NpYWxfc2VjdXJpdHlfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5NTnpjeU9ITlJSUkFC4AEA-gEECB8QOg!16s%2Fg%2F1pzrvpffy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -4805,22 +4691,21 @@
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>-7.943682</v>
+      </c>
       <c r="G111" t="n">
-        <v>-7.943682</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.580466</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Resort+Konservasi+Wilayah+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7a4d79ff129f75:0xf1997b46473eae7d!8m2!3d-7.9436825!4d110.5804657!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11h2hhcl2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4836,22 +4721,21 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>-7.962869</v>
+      </c>
       <c r="G112" t="n">
-        <v>-7.962869</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.602635</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Bidang+Peternakan+DPKP+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb325e3857a0b:0x565007fa3b08ebed!8m2!3d-7.9628689!4d110.6026352!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11t5t158d3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4870,25 +4754,24 @@
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F113" t="n">
-        <v>4.4</v>
+        <v>-7.972695</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.972695</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.610296</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35ecc8e69e9:0x4da5c54f4607bc3d!8m2!3d-7.9726951!4d110.6102959!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQmVrcHlSVlJCRUFF4AEA-gEECDwQPQ!16s%2Fg%2F1pzrk2_np?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb35ecc8e69e9:0x4da5c54f4607bc3d!8m2!3d-7.9726951!4d110.6102959!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQmVrcHlSVlJCRUFF4AEA-gEECDwQPQ!16s%2Fg%2F1pzrk2_np?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -4908,22 +4791,21 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>-7.964758</v>
+      </c>
       <c r="G114" t="n">
-        <v>-7.964758</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.601667</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ruang+Rapat+V+Setda+Kabupaten+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb36cb12281af:0xcf00fe3fe46cb51d!8m2!3d-7.9647584!4d110.6016672!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11lq75lkhq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4943,22 +4825,21 @@
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>-7.96481</v>
+      </c>
       <c r="G115" t="n">
-        <v>-7.96481</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.600074</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Unit+Metrologi+Legal+(UML)+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb339c42d2669:0xc7ce40dc9a5e740f!8m2!3d-7.9648096!4d110.6000738!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11s_bdb9nr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4977,25 +4858,24 @@
           <t>(0274) 391018</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F116" t="n">
-        <v>4.3</v>
+        <v>-7.952309</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.952309</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.676457</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Karangmojo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xe4debf8f4a52dcda!8m2!3d-7.952309!4d110.6764571!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNGRuQXRUVUpuRUFF4AEA-gEECAAQMw!16s%2Fg%2F1pzppp7fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J116" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kapanewon+Karangmojo/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3594ca91e0d:0xe4debf8f4a52dcda!8m2!3d-7.952309!4d110.6764571!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARpkaXN0cmljdF9nb3Zlcm5tZW50X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNGRuQXRUVUpuRUFF4AEA-gEECAAQMw!16s%2Fg%2F1pzppp7fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -5018,25 +4898,24 @@
           <t>(0274) 394091</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>5</v>
+      </c>
       <c r="F117" t="n">
-        <v>5</v>
+        <v>-7.971514</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.971514</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.581393</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Penanggulangan+Bencana+Daerah+(+BPBD+)+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38d309cba19:0xa8b3f2e95a957deb!8m2!3d-7.9715137!4d110.5813931!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRwdWJsaWNfc2FmZXR5X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU9ITlBabk5uUlJBQuABAPoBBAgWEAw!16s%2Fg%2F11rmx00f8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Penanggulangan+Bencana+Daerah+(+BPBD+)+Kabupaten+Gunung+Kidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb38d309cba19:0xa8b3f2e95a957deb!8m2!3d-7.9715137!4d110.5813931!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVsWiEiH2thbnRvciBwZW1lcmludGFoYW4gZ3VudW5na2lkdWySARRwdWJsaWNfc2FmZXR5X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU9ITlBabk5uUlJBQuABAPoBBAgWEAw!16s%2Fg%2F11rmx00f8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -5056,22 +4935,21 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>-7.9598</v>
+      </c>
       <c r="G118" t="n">
-        <v>-7.9598</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.694028</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/UPT+Balai+Benih+Pertanian+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb560342f10a5:0x505b5cb9d04ea5c9!8m2!3d-7.9597998!4d110.6940277!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11t5kcjrjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5087,22 +4965,21 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>-7.981395</v>
+      </c>
       <c r="G119" t="n">
-        <v>-7.981395</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.604944</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Tri+Gunungkidul/@-7.7855416,110.1186351,10z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Gunungkidul!3m6!1s0x2e7bb3651d21f903:0xfea524b2b900a056!8m2!3d-7.9813947!4d110.6049443!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEd1bnVuZ2tpZHVskgEQY29ycG9yYXRlX29mZmljZeABAA!16s%2Fg%2F11vb0rwlnc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5116,16 +4993,15 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Yogyakarta+Government+Office/@-7.8056335,110.3636606,13z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5148,25 +5024,24 @@
           <t>(0274) 514448</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F121" t="n">
-        <v>4.6</v>
+        <v>-7.800181</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.800181</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.391349</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Walikota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5764aed6dc47:0xdaa512ed06ede32a!8m2!3d-7.8001814!4d110.3913493!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F1vtt_12z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Walikota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5764aed6dc47:0xdaa512ed06ede32a!8m2!3d-7.8001814!4d110.3913493!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F1vtt_12z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -5189,25 +5064,24 @@
           <t>(0274) 419714</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F122" t="n">
-        <v>4.2</v>
+        <v>-7.807847</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.807847</v>
-      </c>
-      <c r="H122" t="n">
         <v>110.371611</v>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kota+Kecamatan+Gondomanan+Kelurahan+Prawirodirjan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b6e3e0f4f:0xdec1e0a7523bf5a6!8m2!3d-7.807847!4d110.3716114!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpblk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J122" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kota+Kecamatan+Gondomanan+Kelurahan+Prawirodirjan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b6e3e0f4f:0xdec1e0a7523bf5a6!8m2!3d-7.807847!4d110.3716114!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpblk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -5234,25 +5108,24 @@
           <t>(0274) 512688</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F123" t="n">
-        <v>4.3</v>
+        <v>-7.792343</v>
       </c>
       <c r="G123" t="n">
-        <v>-7.792343</v>
-      </c>
-      <c r="H123" t="n">
         <v>110.366211</v>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DPRD+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5826224aba05:0x7c1af1dbb0179db9!8m2!3d-7.7923435!4d110.3662112!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6_vlnk1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J123" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DPRD+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5826224aba05:0x7c1af1dbb0179db9!8m2!3d-7.7923435!4d110.3662112!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6_vlnk1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -5279,25 +5152,24 @@
           <t>(0274) 373241</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F124" t="n">
-        <v>4.5</v>
+        <v>-7.810812</v>
       </c>
       <c r="G124" t="n">
-        <v>-7.810812</v>
-      </c>
-      <c r="H124" t="n">
         <v>110.369454</v>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Pelestarian+Nilai+Budaya+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53c7aec5:0xdecd392846f59ee7!8m2!3d-7.8108122!4d110.3694535!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pztj0m63?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J124" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Pelestarian+Nilai+Budaya+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53c7aec5:0xdecd392846f59ee7!8m2!3d-7.8108122!4d110.3694535!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pztj0m63?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -5320,25 +5192,24 @@
           <t>(0274) 515867</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>5</v>
+      </c>
       <c r="F125" t="n">
-        <v>5</v>
+        <v>-7.808054</v>
       </c>
       <c r="G125" t="n">
-        <v>-7.808054</v>
-      </c>
-      <c r="H125" t="n">
         <v>110.371727</v>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kota+Yogyakarta+Dinas+Permukiman+Dan+Prasarana+Wilayah+TPU+Sasanalayan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b70413035:0x42a00d5ecbd2b379!8m2!3d-7.8080544!4d110.371727!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpss37?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J125" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kota+Yogyakarta+Dinas+Permukiman+Dan+Prasarana+Wilayah+TPU+Sasanalayan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b70413035:0x42a00d5ecbd2b379!8m2!3d-7.8080544!4d110.371727!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpss37?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -5365,25 +5236,24 @@
           <t>(0274) 387752</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F126" t="n">
-        <v>4.1</v>
+        <v>-7.809452</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.809452</v>
-      </c>
-      <c r="H126" t="n">
         <v>110.369709</v>
       </c>
-      <c r="I126" t="b">
-        <v>0</v>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pusat+Statistik+(BPS)+Kota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579bad2574fd:0xae97bdaa7a4896d1!8m2!3d-7.8094519!4d110.369709!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzqryh0p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J126" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pusat+Statistik+(BPS)+Kota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579bad2574fd:0xae97bdaa7a4896d1!8m2!3d-7.8094519!4d110.369709!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzqryh0p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -5410,25 +5280,24 @@
           <t>(0274) 589583</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F127" t="n">
-        <v>4.5</v>
+        <v>-7.795859</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.795859</v>
-      </c>
-      <c r="H127" t="n">
         <v>110.366127</v>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BAPPEDA+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58263237e877:0xd0111d680b9bb72c!8m2!3d-7.7958592!4d110.3661268!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hd_4dgq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J127" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BAPPEDA+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58263237e877:0xd0111d680b9bb72c!8m2!3d-7.7958592!4d110.3661268!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hd_4dgq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -5455,25 +5324,24 @@
           <t>(0274) 377747</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F128" t="n">
-        <v>4.5</v>
+        <v>-7.809566</v>
       </c>
       <c r="G128" t="n">
-        <v>-7.809566</v>
-      </c>
-      <c r="H128" t="n">
         <v>110.369339</v>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kanwil+BPN+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53e87c41:0x1caf01959adf3201!8m2!3d-7.8095662!4d110.369339!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hm1wzz9w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J128" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kanwil+BPN+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53e87c41:0x1caf01959adf3201!8m2!3d-7.8095662!4d110.369339!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hm1wzz9w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -5500,25 +5368,24 @@
           <t>(0274) 512080</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F129" t="n">
-        <v>4.6</v>
+        <v>-7.782018</v>
       </c>
       <c r="G129" t="n">
-        <v>-7.782018</v>
-      </c>
-      <c r="H129" t="n">
         <v>110.356355</v>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a583dbfc91625:0xf61dff675c08398f!8m2!3d-7.7820182!4d110.3563545!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11rrzp14b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J129" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a583dbfc91625:0xf61dff675c08398f!8m2!3d-7.7820182!4d110.3563545!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11rrzp14b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -5545,25 +5412,24 @@
           <t>(0274) 373444</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>5</v>
+      </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>-7.809995</v>
       </c>
       <c r="G130" t="n">
-        <v>-7.809995</v>
-      </c>
-      <c r="H130" t="n">
         <v>110.36979</v>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+PPID+Pemda+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a5190b79f:0xfdbf49915ef1b592!8m2!3d-7.8099952!4d110.3697903!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dxkvkfz7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J130" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+PPID+Pemda+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a5190b79f:0xfdbf49915ef1b592!8m2!3d-7.8099952!4d110.3697903!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dxkvkfz7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -5590,25 +5456,24 @@
           <t>(0274) 588219</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F131" t="n">
-        <v>4.1</v>
+        <v>-7.787891</v>
       </c>
       <c r="G131" t="n">
-        <v>-7.787891</v>
-      </c>
-      <c r="H131" t="n">
         <v>110.358024</v>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58231b97dd27:0xebed93772611b9c0!8m2!3d-7.7878913!4d110.3580244!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn5rz87x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J131" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58231b97dd27:0xebed93772611b9c0!8m2!3d-7.7878913!4d110.3580244!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn5rz87x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -5631,25 +5496,24 @@
           <t>(0274) 375792</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>4</v>
+      </c>
       <c r="F132" t="n">
-        <v>4</v>
+        <v>-7.806965</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.806965</v>
-      </c>
-      <c r="H132" t="n">
         <v>110.377778</v>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DEKRANASDA+KOTA+YOGYAKARTA/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579d42c03c39:0xa6abb312ec287f63!8m2!3d-7.8069646!4d110.3777783!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bc7p95c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J132" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DEKRANASDA+KOTA+YOGYAKARTA/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579d42c03c39:0xa6abb312ec287f63!8m2!3d-7.8069646!4d110.3777783!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bc7p95c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
         <is>
           <t>8 tahun lalu</t>
         </is>
@@ -5676,21 +5540,20 @@
           <t>(0274) 374289</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="n">
+      <c r="E133" t="n">
         <v>3.9</v>
       </c>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="b">
-        <v>0</v>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Komisi+Informasi+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a4ea08b85:0xe61b085cd876622b!8m2!3d-7.8092294!4d110.3692439!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzptp7wv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J133" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Komisi+Informasi+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a4ea08b85:0xe61b085cd876622b!8m2!3d-7.8092294!4d110.3692439!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzptp7wv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -5713,25 +5576,24 @@
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>5</v>
+      </c>
       <c r="F134" t="n">
-        <v>5</v>
+        <v>-7.807225</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.807225</v>
-      </c>
-      <c r="H134" t="n">
         <v>110.364492</v>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gedhong+Kantor+Parentah+Hageng/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5793e5555555:0x9ce69e369b41048f!8m2!3d-7.8072246!4d110.3644922!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzxpbpjl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J134" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gedhong+Kantor+Parentah+Hageng/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5793e5555555:0x9ce69e369b41048f!8m2!3d-7.8072246!4d110.3644922!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzxpbpjl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -5750,25 +5612,24 @@
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F135" t="n">
-        <v>4.7</v>
+        <v>-7.795137</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.795137</v>
-      </c>
-      <c r="H135" t="n">
         <v>110.366419</v>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gedung+Unit+IX+Kepatihan+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a59cfcac51029:0xb318c2d54e122530!8m2!3d-7.7951368!4d110.3664194!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11g1pn5sk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J135" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gedung+Unit+IX+Kepatihan+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a59cfcac51029:0xb318c2d54e122530!8m2!3d-7.7951368!4d110.3664194!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11g1pn5sk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -5788,22 +5649,21 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>-7.803026</v>
+      </c>
       <c r="G136" t="n">
-        <v>-7.803026</v>
-      </c>
-      <c r="H136" t="n">
         <v>110.366085</v>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/UPT+Pengelolaan+Kawasan+Cagar+Budaya/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a570047ff099b:0x992ef7a6570a9245!8m2!3d-7.8030259!4d110.3660851!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11wwb8s3q6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5822,25 +5682,24 @@
           <t>(0274) 562811</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F137" t="n">
-        <v>4.7</v>
+        <v>-7.795246</v>
       </c>
       <c r="G137" t="n">
-        <v>-7.795246</v>
-      </c>
-      <c r="H137" t="n">
         <v>110.366391</v>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Biro+Umum+Dan+Protokol+Setda+DIY/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a582c010c4d73:0xc0dcde636f08c903!8m2!3d-7.7952464!4d110.3663912!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzy0sl8d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J137" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Biro+Umum+Dan+Protokol+Setda+DIY/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a582c010c4d73:0xc0dcde636f08c903!8m2!3d-7.7952464!4d110.3663912!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzy0sl8d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -5860,22 +5719,21 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>-7.811142</v>
+      </c>
       <c r="G138" t="n">
-        <v>-7.811142</v>
-      </c>
-      <c r="H138" t="n">
         <v>110.359925</v>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bppo+(Balai+Pengembangan+Pemuda+%26+Olahraga)+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5793e5555555:0x178b70f5d48d81d5!8m2!3d-7.8111417!4d110.3599254!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzrsk7kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5889,16 +5747,15 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr">
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Kantor+Pemerintahan+Kulon+Progo/@-7.785643,110.2422865,11z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5921,25 +5778,24 @@
           <t>(0274) 2890731</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>-7.84749</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.84749</v>
-      </c>
-      <c r="H140" t="n">
         <v>110.168449</v>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanahan+dan+Tata+Ruang+Kabupaten+Kulonprogo/@-7.8474898,109.8800583,11z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Kulon+Progo!3m6!1s0x2e7afb2283d1758b:0x29e55725f9eb73b9!8m2!3d-7.8474898!4d110.1684494!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEt1bG9uIFByb2dvWiEiH2thbnRvciBwZW1lcmludGFoYW4ga3Vsb24gcHJvZ2-SARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWWRreHFjME4zRUFF4AEA-gEECDoQMw!16s%2Fg%2F11c6rg_tj6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J140" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanahan+dan+Tata+Ruang+Kabupaten+Kulonprogo/@-7.8474898,109.8800583,11z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Kulon+Progo!3m6!1s0x2e7afb2283d1758b:0x29e55725f9eb73b9!8m2!3d-7.8474898!4d110.1684494!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEt1bG9uIFByb2dvWiEiH2thbnRvciBwZW1lcmludGFoYW4ga3Vsb24gcHJvZ2-SARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWWRreHFjME4zRUFF4AEA-gEECDoQMw!16s%2Fg%2F11c6rg_tj6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -5966,21 +5822,20 @@
           <t>(0274) 773917</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="n">
+      <c r="E141" t="n">
         <v>5</v>
       </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr">
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Pemberdayaan+Masyarakat+dan+Kalurahan,+Pengendalian+Penduduk+dan+Keluarga+Berencana+(DPMKPPKB)+Kabupaten+Kulon+Progo/@-7.8474898,109.8800583,11z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Kulon+Progo!3m6!1s0x2e7afbfed293978d:0x208fea6507729e0f!8m2!3d-7.8563499!4d110.1648101!15sCh9LYW50b3IgUGVtZXJpbnRhaGFuIEt1bG9uIFByb2dvkgEUY2l0eV9kaXN0cmljdF9vZmZpY2XgAQA!16s%2Fg%2F11t3cx7drl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6003,25 +5858,24 @@
           <t>(0274) 868405</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>4</v>
+      </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>-7.716673</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.716673</v>
-      </c>
-      <c r="H142" t="n">
         <v>110.355607</v>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Bupati+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a58ca9958af51:0x7b59aa631f5ac9a1!8m2!3d-7.716673!4d110.3556067!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsYVhKdU5YSm5SUkFC4AEA-gEFCLcBEEM!16s%2Fg%2F1pzr28qh1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J142" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Bupati+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a58ca9958af51:0x7b59aa631f5ac9a1!8m2!3d-7.716673!4d110.3556067!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsYVhKdU5YSm5SUkFC4AEA-gEFCLcBEEM!16s%2Fg%2F1pzr28qh1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -6044,21 +5898,20 @@
           <t>(0274) 868512</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="n">
+      <c r="E143" t="n">
         <v>4.2</v>
       </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="b">
-        <v>0</v>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a5f353ba001e9:0x513ea9b07f7cd94c!8m2!3d-7.7171797!4d110.3545966!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IWjBsVE9XdEJSUkFC4AEA-gEECC4QNw!16s%2Fg%2F1pzrrbt2q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J143" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pendidikan+Kabupaten+Sleman/@-7.7131466,110.348409,16z/data=!4m10!1m2!2m1!1sKantor+Pemerintahan+Sleman!3m6!1s0x2e7a5f353ba001e9:0x513ea9b07f7cd94c!8m2!3d-7.7171797!4d110.3545966!15sChpLYW50b3IgUGVtZXJpbnRhaGFuIFNsZW1hblocIhprYW50b3IgcGVtZXJpbnRhaGFuIHNsZW1hbpIBFGNpdHlfZGlzdHJpY3Rfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IWjBsVE9XdEJSUkFC4AEA-gEECC4QNw!16s%2Fg%2F1pzrrbt2q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
